--- a/records.xlsx
+++ b/records.xlsx
@@ -19,48 +19,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>philosophy</t>
-  </si>
-  <si>
-    <t>ahmad</t>
-  </si>
-  <si>
-    <t>hussein</t>
-  </si>
-  <si>
-    <t>kamal</t>
-  </si>
-  <si>
-    <t>rawad</t>
-  </si>
-  <si>
-    <t>haidar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+  <si>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>التاريخ</t>
+  </si>
+  <si>
+    <t>بداية الحصة</t>
+  </si>
+  <si>
+    <t>نهاية الحصة</t>
+  </si>
+  <si>
+    <t>المادة</t>
+  </si>
+  <si>
+    <t>فقه</t>
+  </si>
+  <si>
+    <t>نحو</t>
+  </si>
+  <si>
+    <t>سيرة</t>
+  </si>
+  <si>
+    <t>فلسفة</t>
+  </si>
+  <si>
+    <t>عقيدة</t>
+  </si>
+  <si>
+    <t>منطق</t>
+  </si>
+  <si>
+    <t>علي مرتضى باسم حوماني</t>
+  </si>
+  <si>
+    <t>رواد حمدان</t>
+  </si>
+  <si>
+    <t>احمد حسن علاء الدين</t>
+  </si>
+  <si>
+    <t>عباس عبدالله مشيمش</t>
+  </si>
+  <si>
+    <t>حيدر علي دكروب</t>
   </si>
 </sst>
 </file>
@@ -138,11 +144,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" name="Date" dataDxfId="2"/>
-    <tableColumn id="3" name="Start" dataDxfId="1"/>
-    <tableColumn id="4" name="End" dataDxfId="0"/>
-    <tableColumn id="5" name="Material"/>
+    <tableColumn id="1" name="الاسم" dataDxfId="3"/>
+    <tableColumn id="2" name="التاريخ" dataDxfId="2"/>
+    <tableColumn id="3" name="بداية الحصة" dataDxfId="1"/>
+    <tableColumn id="4" name="نهاية الحصة" dataDxfId="0"/>
+    <tableColumn id="5" name="المادة"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,13 +419,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
@@ -443,7 +450,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>45190</v>
@@ -455,12 +462,12 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>45264</v>
@@ -472,12 +479,12 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>44898</v>
@@ -489,12 +496,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>44974</v>
@@ -506,12 +513,12 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>45040</v>
@@ -523,7 +530,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,7 +552,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>45264</v>
@@ -557,12 +564,12 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>44898</v>
@@ -574,12 +581,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>44974</v>
@@ -591,12 +598,12 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>45040</v>
@@ -613,7 +620,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>45190</v>
@@ -625,7 +632,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,12 +649,12 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>44898</v>
@@ -659,12 +666,12 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>44974</v>
@@ -676,12 +683,12 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>45040</v>
@@ -693,7 +700,7 @@
         <v>0.32291666666666669</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
